--- a/Project1/s05_1.xlsx
+++ b/Project1/s05_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>36197948.32860903</v>
+        <v>10881896.57006459</v>
       </c>
       <c r="B2">
-        <v>26204688.24060016</v>
+        <v>4641933.569511477</v>
       </c>
       <c r="C2">
-        <v>46191208.41661789</v>
+        <v>17121859.5706177</v>
       </c>
       <c r="D2">
-        <v>20914575.90159661</v>
+        <v>1338696.690511283</v>
       </c>
       <c r="E2">
-        <v>51481320.75562144</v>
+        <v>20425096.4496179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>34565645.28525366</v>
+        <v>10855493.0577065</v>
       </c>
       <c r="B3">
-        <v>23914538.54088589</v>
+        <v>4027007.233707591</v>
       </c>
       <c r="C3">
-        <v>45216752.02962143</v>
+        <v>17683978.8817054</v>
       </c>
       <c r="D3">
-        <v>18276183.21777825</v>
+        <v>412225.1909993514</v>
       </c>
       <c r="E3">
-        <v>50855107.35272907</v>
+        <v>21298760.92441364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>34007073.49924908</v>
+        <v>10836384.05887599</v>
       </c>
       <c r="B4">
-        <v>22724272.42558767</v>
+        <v>3663665.949095734</v>
       </c>
       <c r="C4">
-        <v>45289874.57291049</v>
+        <v>18009102.16865624</v>
       </c>
       <c r="D4">
-        <v>16751518.3240589</v>
+        <v>-133341.6582888812</v>
       </c>
       <c r="E4">
-        <v>51262628.67443925</v>
+        <v>21806109.77604086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>39546050.76796047</v>
+        <v>10822554.31413021</v>
       </c>
       <c r="B5">
-        <v>27653423.92870062</v>
+        <v>3432962.759984748</v>
       </c>
       <c r="C5">
-        <v>51438677.60722033</v>
+        <v>18212145.86827568</v>
       </c>
       <c r="D5">
-        <v>21357847.56708621</v>
+        <v>-478850.7139473874</v>
       </c>
       <c r="E5">
-        <v>57734253.96883474</v>
+        <v>22123959.34220781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>34591376.68116877</v>
+        <v>10812545.32091033</v>
       </c>
       <c r="B6">
-        <v>22107477.27121996</v>
+        <v>3277294.66437394</v>
       </c>
       <c r="C6">
-        <v>47075276.09111758</v>
+        <v>18347795.97744672</v>
       </c>
       <c r="D6">
-        <v>15498900.11763485</v>
+        <v>-711626.0806649514</v>
       </c>
       <c r="E6">
-        <v>53683853.24470268</v>
+        <v>22336716.72248561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>40509802.8139142</v>
+        <v>10805301.51799732</v>
       </c>
       <c r="B7">
-        <v>27450558.40717606</v>
+        <v>3166196.626584698</v>
       </c>
       <c r="C7">
-        <v>53569047.22065235</v>
+        <v>18444406.40940994</v>
       </c>
       <c r="D7">
-        <v>20537412.00993127</v>
+        <v>-877701.2294808272</v>
       </c>
       <c r="E7">
-        <v>60482193.61789713</v>
+        <v>22488304.26547546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>35742713.49999155</v>
+        <v>10800058.96467654</v>
       </c>
       <c r="B8">
-        <v>22121932.18917514</v>
+        <v>3082616.87351513</v>
       </c>
       <c r="C8">
-        <v>49363494.81080796</v>
+        <v>18517501.05583794</v>
       </c>
       <c r="D8">
-        <v>14911526.11101455</v>
+        <v>-1002750.19113142</v>
       </c>
       <c r="E8">
-        <v>56573900.88896855</v>
+        <v>22602868.12048449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>39039274.44691537</v>
+        <v>10796264.77457346</v>
       </c>
       <c r="B9">
-        <v>24869025.6138211</v>
+        <v>3016588.763953376</v>
       </c>
       <c r="C9">
-        <v>53209523.28000963</v>
+        <v>18575940.78519354</v>
       </c>
       <c r="D9">
-        <v>17367748.9995307</v>
+        <v>-1101722.947618548</v>
       </c>
       <c r="E9">
-        <v>60710799.89430003</v>
+        <v>22694252.49676546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>37203474.51380253</v>
+        <v>10793518.80754986</v>
       </c>
       <c r="B10">
-        <v>22494381.39809039</v>
+        <v>2962069.986723269</v>
       </c>
       <c r="C10">
-        <v>51912567.62951467</v>
+        <v>18624967.62837645</v>
       </c>
       <c r="D10">
-        <v>14707857.8510499</v>
+        <v>-1183648.595047798</v>
       </c>
       <c r="E10">
-        <v>59699091.17655516</v>
+        <v>22770686.21014751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>32424666.83527426</v>
+        <v>10791531.47041338</v>
       </c>
       <c r="B11">
-        <v>17186135.44969362</v>
+        <v>2915277.994413819</v>
       </c>
       <c r="C11">
-        <v>47663198.22085489</v>
+        <v>18667784.94641295</v>
       </c>
       <c r="D11">
-        <v>9119344.212279223</v>
+        <v>-1254158.739100318</v>
       </c>
       <c r="E11">
-        <v>55729989.45826929</v>
+        <v>22837221.67992709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37083329.41398757</v>
+        <v>10790093.1760493</v>
       </c>
       <c r="B12">
-        <v>21323730.50134661</v>
+        <v>2873777.289539681</v>
       </c>
       <c r="C12">
-        <v>52842928.32662853</v>
+        <v>18706409.06255892</v>
       </c>
       <c r="D12">
-        <v>12981102.77713213</v>
+        <v>-1316867.203034362</v>
       </c>
       <c r="E12">
-        <v>61185556.05084302</v>
+        <v>22897053.55513296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>37018396.12333071</v>
+        <v>10789052.24009546</v>
       </c>
       <c r="B13">
-        <v>20745211.80162368</v>
+        <v>2835961.255740919</v>
       </c>
       <c r="C13">
-        <v>53291580.44503773</v>
+        <v>18742143.22445</v>
       </c>
       <c r="D13">
-        <v>12130708.38462175</v>
+        <v>-1374150.797685554</v>
       </c>
       <c r="E13">
-        <v>61906083.86203966</v>
+        <v>22952255.27787647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>40612926.90470486</v>
+        <v>10788298.88411559</v>
       </c>
       <c r="B14">
-        <v>22995895.98308621</v>
+        <v>2800748.316506258</v>
       </c>
       <c r="C14">
-        <v>58229957.82632351</v>
+        <v>18775849.45172492</v>
       </c>
       <c r="D14">
-        <v>13670003.14788523</v>
+        <v>-1427605.538391171</v>
       </c>
       <c r="E14">
-        <v>67555850.66152449</v>
+        <v>23004203.30662235</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>38980623.86134949</v>
+        <v>10787753.65822507</v>
       </c>
       <c r="B15">
-        <v>20885914.64282663</v>
+        <v>2767398.179556536</v>
       </c>
       <c r="C15">
-        <v>57075333.07987234</v>
+        <v>18808109.1368936</v>
       </c>
       <c r="D15">
-        <v>11307154.19182534</v>
+        <v>-1478321.546262478</v>
       </c>
       <c r="E15">
-        <v>66654093.53087363</v>
+        <v>23053828.86271261</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>38422052.07534491</v>
+        <v>10787359.06220455</v>
       </c>
       <c r="B16">
-        <v>19853666.92589623</v>
+        <v>2735397.398531279</v>
       </c>
       <c r="C16">
-        <v>56990437.2247936</v>
+        <v>18839320.72587781</v>
       </c>
       <c r="D16">
-        <v>10024157.58366109</v>
+        <v>-1527053.630967403</v>
       </c>
       <c r="E16">
-        <v>66819946.56702874</v>
+        <v>23101771.7553765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>43961029.3440563</v>
+        <v>10787073.4814533</v>
       </c>
       <c r="B17">
-        <v>24922599.65705281</v>
+        <v>2704386.145519374</v>
       </c>
       <c r="C17">
-        <v>62999459.03105979</v>
+        <v>18869760.81738723</v>
       </c>
       <c r="D17">
-        <v>14844263.76711442</v>
+        <v>-1574330.072368164</v>
       </c>
       <c r="E17">
-        <v>73077794.92099819</v>
+        <v>23148477.03527477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>39006355.2572646</v>
+        <v>10786866.79826027</v>
       </c>
       <c r="B18">
-        <v>19501179.38631635</v>
+        <v>2674110.206996889</v>
       </c>
       <c r="C18">
-        <v>58511531.12821285</v>
+        <v>18899623.38952364</v>
       </c>
       <c r="D18">
-        <v>9175762.991605379</v>
+        <v>-1620523.713146176</v>
       </c>
       <c r="E18">
-        <v>68836947.52292383</v>
+        <v>23194257.30966671</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>44924781.39001003</v>
+        <v>10786717.21555171</v>
       </c>
       <c r="B19">
-        <v>24955857.53631171</v>
+        <v>2644388.853914275</v>
       </c>
       <c r="C19">
-        <v>64893705.24370835</v>
+        <v>18929045.57718914</v>
       </c>
       <c r="D19">
-        <v>14384947.788668</v>
+        <v>-1665899.415856864</v>
       </c>
       <c r="E19">
-        <v>75464614.99135205</v>
+        <v>23239333.84696028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>40157692.07608739</v>
+        <v>10786608.95814397</v>
       </c>
       <c r="B20">
-        <v>19727746.95405847</v>
+        <v>2615092.962170667</v>
       </c>
       <c r="C20">
-        <v>60587637.1981163</v>
+        <v>18958124.95411728</v>
       </c>
       <c r="D20">
-        <v>8912787.288904335</v>
+        <v>-1710646.307893341</v>
       </c>
       <c r="E20">
-        <v>71402596.86327043</v>
+        <v>23283864.22418129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>43454253.02301119</v>
+        <v>10786530.60907247</v>
       </c>
       <c r="B21">
-        <v>22565766.96999258</v>
+        <v>2586129.904607606</v>
       </c>
       <c r="C21">
-        <v>64342739.07602981</v>
+        <v>18986931.31353733</v>
       </c>
       <c r="D21">
-        <v>11508070.39860327</v>
+        <v>-1754900.006493859</v>
       </c>
       <c r="E21">
-        <v>75400435.64741913</v>
+        <v>23327961.22463879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>41618453.08989836</v>
+        <v>10786473.90554396</v>
       </c>
       <c r="B22">
-        <v>20273682.16218589</v>
+        <v>2557433.004123375</v>
       </c>
       <c r="C22">
-        <v>62963224.01761083</v>
+        <v>19015514.80696454</v>
       </c>
       <c r="D22">
-        <v>8974442.968623158</v>
+        <v>-1798758.111427151</v>
       </c>
       <c r="E22">
-        <v>74262463.21117356</v>
+        <v>23371705.92251506</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>36839645.41137008</v>
+        <v>10786432.86753184</v>
       </c>
       <c r="B23">
-        <v>15040640.91151255</v>
+        <v>2528954.108621824</v>
       </c>
       <c r="C23">
-        <v>58638649.91122761</v>
+        <v>19043911.62644186</v>
       </c>
       <c r="D23">
-        <v>3500944.989751823</v>
+        <v>-1842291.099334465</v>
       </c>
       <c r="E23">
-        <v>70178345.83298835</v>
+        <v>23415156.83439815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>41498307.9900834</v>
+        <v>10786403.16711491</v>
       </c>
       <c r="B24">
-        <v>19246933.79297774</v>
+        <v>2500658.330229553</v>
       </c>
       <c r="C24">
-        <v>63749682.18718907</v>
+        <v>19072148.00400027</v>
       </c>
       <c r="D24">
-        <v>7467767.818788849</v>
+        <v>-1885550.035550676</v>
       </c>
       <c r="E24">
-        <v>75528848.16137797</v>
+        <v>23458356.3697805</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>41433374.69942653</v>
+        <v>10786381.67204923</v>
       </c>
       <c r="B25">
-        <v>18731322.68273542</v>
+        <v>2472520.300021776</v>
       </c>
       <c r="C25">
-        <v>64135426.71611764</v>
+        <v>19100243.04407668</v>
       </c>
       <c r="D25">
-        <v>6713582.282052323</v>
+        <v>-1928572.060388364</v>
       </c>
       <c r="E25">
-        <v>76153167.11680074</v>
+        <v>23501335.40448682</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>45027905.48080069</v>
+        <v>10786366.11543769</v>
       </c>
       <c r="B26">
-        <v>21213398.99603982</v>
+        <v>2444521.492143223</v>
       </c>
       <c r="C26">
-        <v>68842411.96556157</v>
+        <v>19128210.73873216</v>
       </c>
       <c r="D26">
-        <v>8606760.772595458</v>
+        <v>-1971384.306675341</v>
       </c>
       <c r="E26">
-        <v>81449050.18900591</v>
+        <v>23544116.53755072</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>43395602.43744532</v>
+        <v>10786354.85666016</v>
       </c>
       <c r="B27">
-        <v>19145584.01162395</v>
+        <v>2416648.306920126</v>
       </c>
       <c r="C27">
-        <v>67645620.86326669</v>
+        <v>19156061.40640019</v>
       </c>
       <c r="D27">
-        <v>6308399.692821577</v>
+        <v>-2014006.704825955</v>
       </c>
       <c r="E27">
-        <v>80482805.18206906</v>
+        <v>23586716.41814627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>42837030.65144075</v>
+        <v>10786346.70835156</v>
       </c>
       <c r="B28">
-        <v>18152282.83037633</v>
+        <v>2388890.694998896</v>
       </c>
       <c r="C28">
-        <v>67521778.47250517</v>
+        <v>19183802.72170423</v>
       </c>
       <c r="D28">
-        <v>5084966.670948461</v>
+        <v>-2056453.995447138</v>
       </c>
       <c r="E28">
-        <v>80589094.63193303</v>
+        <v>23629147.41215026</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>48376007.92015214</v>
+        <v>10786340.81118087</v>
       </c>
       <c r="B29">
-        <v>23257217.87144714</v>
+        <v>2361241.168384466</v>
       </c>
       <c r="C29">
-        <v>73494797.96885714</v>
+        <v>19211440.45397726</v>
       </c>
       <c r="D29">
-        <v>9960133.63594915</v>
+        <v>-2098737.175536735</v>
       </c>
       <c r="E29">
-        <v>86791882.20435512</v>
+        <v>23671418.79789846</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>43421333.83336043</v>
+        <v>10786336.5432249</v>
       </c>
       <c r="B30">
-        <v>17869099.8878831</v>
+        <v>2333694.08881687</v>
       </c>
       <c r="C30">
-        <v>68973567.77883774</v>
+        <v>19238978.99763294</v>
       </c>
       <c r="D30">
-        <v>4342564.31354402</v>
+        <v>-2140864.538843004</v>
       </c>
       <c r="E30">
-        <v>82500103.35317683</v>
+        <v>23713537.62529281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>49339759.96610586</v>
+        <v>10786333.45437959</v>
       </c>
       <c r="B31">
-        <v>23354597.59105828</v>
+        <v>2306245.15529781</v>
       </c>
       <c r="C31">
-        <v>75324922.34115344</v>
+        <v>19266421.75346136</v>
       </c>
       <c r="D31">
-        <v>9598883.549731918</v>
+        <v>-2182842.424904507</v>
       </c>
       <c r="E31">
-        <v>89080636.38247982</v>
+        <v>23755509.33366368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>44572670.65218321</v>
+        <v>10786331.21889134</v>
       </c>
       <c r="B32">
-        <v>18155017.91659608</v>
+        <v>2278891.034805845</v>
       </c>
       <c r="C32">
-        <v>70990323.38777033</v>
+        <v>19293771.40297683</v>
       </c>
       <c r="D32">
-        <v>4170357.308019288</v>
+        <v>-2224675.75869412</v>
       </c>
       <c r="E32">
-        <v>84974983.99634713</v>
+        <v>23797338.1964768</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>47869231.59910703</v>
+        <v>10786329.60100272</v>
       </c>
       <c r="B33">
-        <v>21019454.18488148</v>
+        <v>2251629.096061412</v>
       </c>
       <c r="C33">
-        <v>74719009.01333258</v>
+        <v>19321030.10594402</v>
       </c>
       <c r="D33">
-        <v>6806040.589359403</v>
+        <v>-2266368.439604223</v>
       </c>
       <c r="E33">
-        <v>88932422.60885465</v>
+        <v>23839027.64160965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>46033431.66599419</v>
+        <v>10786328.43008911</v>
       </c>
       <c r="B34">
-        <v>18751827.47101815</v>
+        <v>2224457.217506215</v>
       </c>
       <c r="C34">
-        <v>73315035.86097023</v>
+        <v>19348199.64267201</v>
       </c>
       <c r="D34">
-        <v>4309818.586166874</v>
+        <v>-2307923.621955017</v>
       </c>
       <c r="E34">
-        <v>87757044.74582151</v>
+        <v>23880580.48213324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>41254623.98746592</v>
+        <v>10786327.58266448</v>
       </c>
       <c r="B35">
-        <v>13541427.36168303</v>
+        <v>2197373.648758026</v>
       </c>
       <c r="C35">
-        <v>68967820.61324881</v>
+        <v>19375281.51657093</v>
       </c>
       <c r="D35">
-        <v>-1129052.755131029</v>
+        <v>-2349343.917355549</v>
       </c>
       <c r="E35">
-        <v>83638300.73006287</v>
+        <v>23921999.08268451</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>45913286.56617923</v>
+        <v>10786326.96935834</v>
       </c>
       <c r="B36">
-        <v>17768672.21662801</v>
+        <v>2170376.910612212</v>
       </c>
       <c r="C36">
-        <v>74057900.91573045</v>
+        <v>19402277.02810447</v>
       </c>
       <c r="D36">
-        <v>2869813.352170818</v>
+        <v>-2390631.540744208</v>
       </c>
       <c r="E36">
-        <v>88956759.78018764</v>
+        <v>23963285.47946089</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>45848353.27552236</v>
+        <v>10786326.52549064</v>
       </c>
       <c r="B37">
-        <v>17272439.87216967</v>
+        <v>2143465.722837234</v>
       </c>
       <c r="C37">
-        <v>74424266.67887504</v>
+        <v>19429187.32814404</v>
       </c>
       <c r="D37">
-        <v>2145265.080155119</v>
+        <v>-2431788.415826622</v>
       </c>
       <c r="E37">
-        <v>89551441.4708896</v>
+        <v>24004441.4668079</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>49442884.05689652</v>
+        <v>10786326.20425052</v>
       </c>
       <c r="B38">
-        <v>19863655.8923</v>
+        <v>2116638.952015491</v>
       </c>
       <c r="C38">
-        <v>79022112.22149305</v>
+        <v>19456013.45648555</v>
       </c>
       <c r="D38">
-        <v>4205358.348388962</v>
+        <v>-2472816.251235256</v>
       </c>
       <c r="E38">
-        <v>94680409.76540408</v>
+        <v>24045468.65973631</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>47810581.01354116</v>
+        <v>10786325.9717596</v>
       </c>
       <c r="B39">
-        <v>17808357.42098765</v>
+        <v>2089895.5738439</v>
       </c>
       <c r="C39">
-        <v>77812804.60609466</v>
+        <v>19482756.3696753</v>
       </c>
       <c r="D39">
-        <v>1926139.623518691</v>
+        <v>-2513716.595572354</v>
       </c>
       <c r="E39">
-        <v>93695022.40356362</v>
+        <v>24086368.53909155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>47252009.22753657</v>
+        <v>10786325.80349907</v>
       </c>
       <c r="B40">
-        <v>16826529.54964212</v>
+        <v>2063234.645866688</v>
       </c>
       <c r="C40">
-        <v>77677488.90543103</v>
+        <v>19509416.96113146</v>
       </c>
       <c r="D40">
-        <v>720253.51493112</v>
+        <v>-2554490.877220176</v>
       </c>
       <c r="E40">
-        <v>93783764.94014204</v>
+        <v>24127142.48421833</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>52790986.49624796</v>
+        <v>10786325.68172398</v>
       </c>
       <c r="B41">
-        <v>21941956.22626965</v>
+        <v>2036655.287735853</v>
       </c>
       <c r="C41">
-        <v>83640016.76622628</v>
+        <v>19535996.07571211</v>
       </c>
       <c r="D41">
-        <v>5611466.051864266</v>
+        <v>-2595140.433161184</v>
       </c>
       <c r="E41">
-        <v>99970506.94063166</v>
+        <v>24167791.79660915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>47836312.40945626</v>
+        <v>10786325.59359176</v>
       </c>
       <c r="B42">
-        <v>16563405.03279261</v>
+        <v>2010156.666904306</v>
       </c>
       <c r="C42">
-        <v>79109219.78611991</v>
+        <v>19562494.52027922</v>
       </c>
       <c r="D42">
-        <v>8527.872303701937</v>
+        <v>-2635666.529867839</v>
       </c>
       <c r="E42">
-        <v>95664096.94660881</v>
+        <v>24208317.71705137</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>53754738.54220169</v>
+        <v>10786325.52980789</v>
       </c>
       <c r="B43">
-        <v>22057597.25798491</v>
+        <v>1983737.98824033</v>
       </c>
       <c r="C43">
-        <v>85451879.82641847</v>
+        <v>19588913.07137544</v>
       </c>
       <c r="D43">
-        <v>5278144.232442357</v>
+        <v>-2676070.378468931</v>
       </c>
       <c r="E43">
-        <v>102231332.851961</v>
+        <v>24248721.4380847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>48987649.22827904</v>
+        <v>10786325.48364562</v>
       </c>
       <c r="B44">
-        <v>16865888.56059015</v>
+        <v>1957398.48647308</v>
       </c>
       <c r="C44">
-        <v>81109409.89596793</v>
+        <v>19615252.48081815</v>
       </c>
       <c r="D44">
-        <v>-138344.3886312842</v>
+        <v>-2716353.145784302</v>
       </c>
       <c r="E44">
-        <v>98113642.84518936</v>
+        <v>24289004.11307553</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>52284210.17520285</v>
+        <v>10786325.45023662</v>
       </c>
       <c r="B45">
-        <v>19737417.48254207</v>
+        <v>1931137.420682434</v>
       </c>
       <c r="C45">
-        <v>84831002.86786364</v>
+        <v>19641513.47979081</v>
       </c>
       <c r="D45">
-        <v>2508186.170426682</v>
+        <v>-2756515.962376354</v>
       </c>
       <c r="E45">
-        <v>102060234.179979</v>
+        <v>24329166.8628496</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>50448410.24209002</v>
+        <v>10786325.42605755</v>
       </c>
       <c r="B46">
-        <v>17476147.13293336</v>
+        <v>1904954.070265552</v>
       </c>
       <c r="C46">
-        <v>83420673.35124669</v>
+        <v>19667696.78184955</v>
       </c>
       <c r="D46">
-        <v>21685.38746954501</v>
+        <v>-2796559.928446881</v>
       </c>
       <c r="E46">
-        <v>100875135.0967105</v>
+        <v>24369210.78056198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>45669602.56356175</v>
+        <v>10786325.40855845</v>
       </c>
       <c r="B47">
-        <v>12271406.2251196</v>
+        <v>1878847.731970528</v>
       </c>
       <c r="C47">
-        <v>79067798.90200388</v>
+        <v>19693803.08514636</v>
       </c>
       <c r="D47">
-        <v>-5408530.951984234</v>
+        <v>-2836486.118176991</v>
       </c>
       <c r="E47">
-        <v>96747736.07910773</v>
+        <v>24409136.93529388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>50328265.14227506</v>
+        <v>10786325.39589383</v>
       </c>
       <c r="B48">
-        <v>16503649.5889289</v>
+        <v>1852817.717701534</v>
       </c>
       <c r="C48">
-        <v>84152880.69562122</v>
+        <v>19719833.07408612</v>
       </c>
       <c r="D48">
-        <v>-1402020.285061181</v>
+        <v>-2876295.582941508</v>
       </c>
       <c r="E48">
-        <v>102058550.5696113</v>
+        <v>24448946.37472916</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>50263331.85161819</v>
+        <v>10786325.38672807</v>
       </c>
       <c r="B49">
-        <v>16011789.09893829</v>
+        <v>1826863.352882089</v>
       </c>
       <c r="C49">
-        <v>84514874.60429809</v>
+        <v>19745787.42057405</v>
       </c>
       <c r="D49">
-        <v>-2119882.382651456</v>
+        <v>-2915989.353709091</v>
       </c>
       <c r="E49">
-        <v>102646546.0858879</v>
+        <v>24488640.12716523</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>53857862.63299236</v>
+        <v>10786325.38009454</v>
       </c>
       <c r="B50">
-        <v>18665356.22376919</v>
+        <v>1800983.975222474</v>
       </c>
       <c r="C50">
-        <v>89050369.04221553</v>
+        <v>19771666.78496661</v>
       </c>
       <c r="D50">
-        <v>35568.67132820189</v>
+        <v>-2955568.44285275</v>
       </c>
       <c r="E50">
-        <v>107680156.5946565</v>
+        <v>24528219.20304184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>52225559.58963698</v>
+        <v>10786325.37529366</v>
       </c>
       <c r="B51">
-        <v>16611219.05094513</v>
+        <v>1775178.933780093</v>
       </c>
       <c r="C51">
-        <v>87839900.12832883</v>
+        <v>19797471.81680724</v>
       </c>
       <c r="D51">
-        <v>-2241874.000768587</v>
+        <v>-2995033.84553295</v>
       </c>
       <c r="E51">
-        <v>106692993.1800426</v>
+        <v>24567684.59612028</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51666987.8036324</v>
+        <v>10786325.37181913</v>
       </c>
       <c r="B52">
-        <v>15630107.90611831</v>
+        <v>1749447.58823254</v>
       </c>
       <c r="C52">
-        <v>87703867.70114648</v>
+        <v>19823203.15540572</v>
       </c>
       <c r="D52">
-        <v>-3446663.970737003</v>
+        <v>-3034386.54077027</v>
       </c>
       <c r="E52">
-        <v>106780639.5780018</v>
+        <v>24607037.28440852</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>57205965.0723438</v>
+        <v>10786325.3693045</v>
       </c>
       <c r="B53">
-        <v>20745827.38778965</v>
+        <v>1723789.308305398</v>
       </c>
       <c r="C53">
-        <v>93666102.75689794</v>
+        <v>19848861.43030361</v>
       </c>
       <c r="D53">
-        <v>1444996.372867204</v>
+        <v>-3073627.492292279</v>
       </c>
       <c r="E53">
-        <v>112966933.7718204</v>
+        <v>24646278.23090129</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>52251290.9855521</v>
+        <v>10786325.36748459</v>
       </c>
       <c r="B54">
-        <v>15367164.53419257</v>
+        <v>1698203.47331289</v>
       </c>
       <c r="C54">
-        <v>89135417.43691161</v>
+        <v>19874447.2616563</v>
       </c>
       <c r="D54">
-        <v>-4158112.576110445</v>
+        <v>-3112757.649215573</v>
       </c>
       <c r="E54">
-        <v>108660694.5472146</v>
+        <v>24685408.38418476</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>58169717.11829753</v>
+        <v>10786325.36616747</v>
       </c>
       <c r="B55">
-        <v>20860858.98185553</v>
+        <v>1672689.471781146</v>
       </c>
       <c r="C55">
-        <v>95478575.25473952</v>
+        <v>19899961.2605538</v>
       </c>
       <c r="D55">
-        <v>1110742.498992153</v>
+        <v>-3151777.94660713</v>
       </c>
       <c r="E55">
-        <v>115228691.7376029</v>
+        <v>24724428.67894208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>53402627.80437487</v>
+        <v>10786325.36521423</v>
       </c>
       <c r="B56">
-        <v>15668283.70698707</v>
+        <v>1647246.701132208</v>
       </c>
       <c r="C56">
-        <v>91136971.90176268</v>
+        <v>19925404.02929626</v>
       </c>
       <c r="D56">
-        <v>-4307071.437959477</v>
+        <v>-3190689.305956881</v>
       </c>
       <c r="E56">
-        <v>111112327.0467092</v>
+        <v>24763340.03638535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56699188.75129869</v>
+        <v>10786325.36452435</v>
       </c>
       <c r="B57">
-        <v>18538593.61033929</v>
+        <v>1621874.567412967</v>
       </c>
       <c r="C57">
-        <v>94859783.89225808</v>
+        <v>19950776.16163573</v>
       </c>
       <c r="D57">
-        <v>-1662405.206967682</v>
+        <v>-3229492.635584502</v>
       </c>
       <c r="E57">
-        <v>115060782.7095651</v>
+        <v>24802143.3646332</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>54863388.81818586</v>
+        <v>10786325.36402506</v>
       </c>
       <c r="B58">
-        <v>16275767.26684902</v>
+        <v>1596572.485057561</v>
       </c>
       <c r="C58">
-        <v>93451010.36952269</v>
+        <v>19976078.24299255</v>
       </c>
       <c r="D58">
-        <v>-4151285.677211724</v>
+        <v>-3268188.83099718</v>
       </c>
       <c r="E58">
-        <v>113878063.3135834</v>
+        <v>24840839.55904729</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>50084581.13965757</v>
+        <v>10786325.36366371</v>
       </c>
       <c r="B59">
-        <v>11069148.02302274</v>
+        <v>1571339.876674982</v>
       </c>
       <c r="C59">
-        <v>89100014.2562924</v>
+        <v>20001310.85065243</v>
       </c>
       <c r="D59">
-        <v>-9584374.683700033</v>
+        <v>-3306778.775210386</v>
       </c>
       <c r="E59">
-        <v>109753536.9630152</v>
+        <v>24879429.50253779</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>54743243.71837089</v>
+        <v>10786325.36340218</v>
       </c>
       <c r="B60">
-        <v>15299204.56455141</v>
+        <v>1546176.172855821</v>
       </c>
       <c r="C60">
-        <v>94187282.87219037</v>
+        <v>20026474.55394855</v>
       </c>
       <c r="D60">
-        <v>-5581208.472845592</v>
+        <v>-3345263.33904049</v>
       </c>
       <c r="E60">
-        <v>115067695.9095874</v>
+        <v>24917914.06584486</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>54678310.42771403</v>
+        <v>10786325.36321291</v>
       </c>
       <c r="B61">
-        <v>14804861.8955754</v>
+        <v>1521080.811993828</v>
       </c>
       <c r="C61">
-        <v>94551758.95985265</v>
+        <v>20051569.914432</v>
       </c>
       <c r="D61">
-        <v>-6302866.735604227</v>
+        <v>-3383643.381375529</v>
       </c>
       <c r="E61">
-        <v>115659487.5910323</v>
+        <v>24956294.10780136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>58272841.20908818</v>
+        <v>10786325.36307593</v>
       </c>
       <c r="B62">
-        <v>17497497.01028473</v>
+        <v>1496053.240119085</v>
       </c>
       <c r="C62">
-        <v>99048185.40789163</v>
+        <v>20076597.48603278</v>
       </c>
       <c r="D62">
-        <v>-4087666.347170308</v>
+        <v>-3421919.749428816</v>
       </c>
       <c r="E62">
-        <v>120633348.7653467</v>
+        <v>24994570.47558068</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>56640538.16573281</v>
+        <v>10786325.3629768</v>
       </c>
       <c r="B63">
-        <v>15439087.24533439</v>
+        <v>1471092.910740459</v>
       </c>
       <c r="C63">
-        <v>97841989.08613123</v>
+        <v>20101557.81521313</v>
       </c>
       <c r="D63">
-        <v>-6371643.385041595</v>
+        <v>-3460093.278978772</v>
       </c>
       <c r="E63">
-        <v>119652719.7165072</v>
+        <v>25032744.00493236</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>56081966.37972824</v>
+        <v>10786325.36290505</v>
       </c>
       <c r="B64">
-        <v>14453488.84197143</v>
+        <v>1446199.284695638</v>
       </c>
       <c r="C64">
-        <v>97710443.91748504</v>
+        <v>20126451.44111446</v>
       </c>
       <c r="D64">
-        <v>-7583296.024727412</v>
+        <v>-3498164.794597456</v>
       </c>
       <c r="E64">
-        <v>119747228.7841839</v>
+        <v>25070815.52040755</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>61620943.64843963</v>
+        <v>10786325.36285312</v>
       </c>
       <c r="B65">
-        <v>19564514.9197059</v>
+        <v>1421371.830007503</v>
       </c>
       <c r="C65">
-        <v>103677372.3771734</v>
+        <v>20151278.89569873</v>
       </c>
       <c r="D65">
-        <v>-2698813.623024635</v>
+        <v>-3536135.109869663</v>
       </c>
       <c r="E65">
-        <v>125940700.9199039</v>
+        <v>25108785.8355759</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>56666269.56164792</v>
+        <v>10786325.36281554</v>
       </c>
       <c r="B66">
-        <v>14180960.63910142</v>
+        <v>1396610.02174589</v>
       </c>
       <c r="C66">
-        <v>99151578.48419443</v>
+        <v>20176040.70388519</v>
       </c>
       <c r="D66">
-        <v>-8309403.364055648</v>
+        <v>-3574005.027603896</v>
       </c>
       <c r="E66">
-        <v>121641942.4873515</v>
+        <v>25146655.75323498</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>62584695.69439335</v>
+        <v>10786325.36278834</v>
       </c>
       <c r="B67">
-        <v>19669573.38317806</v>
+        <v>1371913.34189406</v>
       </c>
       <c r="C67">
-        <v>105499818.0056087</v>
+        <v>20200737.38368262</v>
       </c>
       <c r="D67">
-        <v>-3048320.083921813</v>
+        <v>-3611775.340036297</v>
       </c>
       <c r="E67">
-        <v>128217711.4727085</v>
+        <v>25184426.06561298</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>57817606.38047071</v>
+        <v>10786325.36276866</v>
       </c>
       <c r="B68">
-        <v>14471733.52007331</v>
+        <v>1347281.279219337</v>
       </c>
       <c r="C68">
-        <v>101163479.2408681</v>
+        <v>20225369.44631797</v>
       </c>
       <c r="D68">
-        <v>-8474185.5137778</v>
+        <v>-3649446.829028253</v>
       </c>
       <c r="E68">
-        <v>124109398.2747192</v>
+        <v>25222097.55456556</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>61114167.32739452</v>
+        <v>10786325.36275441</v>
       </c>
       <c r="B69">
-        <v>17336603.0077421</v>
+        <v>1322713.329147533</v>
       </c>
       <c r="C69">
-        <v>104891731.647047</v>
+        <v>20249937.39636129</v>
       </c>
       <c r="D69">
-        <v>-5837839.680565648</v>
+        <v>-3687020.266258292</v>
       </c>
       <c r="E69">
-        <v>128066174.3353547</v>
+        <v>25259670.99176711</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>59278367.39428169</v>
+        <v>10786325.3627441</v>
       </c>
       <c r="B70">
-        <v>15068167.16210815</v>
+        <v>1298208.993640834</v>
       </c>
       <c r="C70">
-        <v>103488567.6264552</v>
+        <v>20274441.73184737</v>
       </c>
       <c r="D70">
-        <v>-8335299.144014791</v>
+        <v>-3724496.41340873</v>
       </c>
       <c r="E70">
-        <v>126892033.9325782</v>
+        <v>25297147.13889693</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>54499559.71575341</v>
+        <v>10786325.36273664</v>
       </c>
       <c r="B71">
-        <v>9855775.771736652</v>
+        <v>1273767.78107889</v>
       </c>
       <c r="C71">
-        <v>99143343.65977016</v>
+        <v>20298882.94439439</v>
       </c>
       <c r="D71">
-        <v>-13777215.88685511</v>
+        <v>-3761876.02234743</v>
       </c>
       <c r="E71">
-        <v>122776335.3183619</v>
+        <v>25334526.74782071</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>59158222.29446673</v>
+        <v>10786325.36273124</v>
       </c>
       <c r="B72">
-        <v>14079903.6816079</v>
+        <v>1249389.206142969</v>
       </c>
       <c r="C72">
-        <v>104236540.9073256</v>
+        <v>20323261.51931951</v>
       </c>
       <c r="D72">
-        <v>-9783116.73567941</v>
+        <v>-3799159.835304927</v>
       </c>
       <c r="E72">
-        <v>128099561.3246129</v>
+        <v>25371810.5607674</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>59093289.00380985</v>
+        <v>10786325.36272733</v>
       </c>
       <c r="B73">
-        <v>13579481.78749827</v>
+        <v>1225072.789702922</v>
       </c>
       <c r="C73">
-        <v>104607096.2201214</v>
+        <v>20347577.93575174</v>
       </c>
       <c r="D73">
-        <v>-10514072.37096377</v>
+        <v>-3836348.585047249</v>
       </c>
       <c r="E73">
-        <v>128700650.3785835</v>
+        <v>25408999.31050191</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>62687819.78518401</v>
+        <v>10786325.3627245</v>
       </c>
       <c r="B74">
-        <v>16297821.185436</v>
+        <v>1200818.058706911</v>
       </c>
       <c r="C74">
-        <v>109077818.384932</v>
+        <v>20371832.66674209</v>
       </c>
       <c r="D74">
-        <v>-8259560.673698753</v>
+        <v>-3873442.995044528</v>
       </c>
       <c r="E74">
-        <v>133635200.2440668</v>
+        <v>25446093.72049353</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>61055516.74182864</v>
+        <v>10786325.36272245</v>
       </c>
       <c r="B75">
-        <v>14232221.1712885</v>
+        <v>1176624.546073746</v>
       </c>
       <c r="C75">
-        <v>107878812.3123688</v>
+        <v>20396026.17937116</v>
       </c>
       <c r="D75">
-        <v>-10554534.24877165</v>
+        <v>-3910443.779635649</v>
       </c>
       <c r="E75">
-        <v>132665567.7324289</v>
+        <v>25483094.50508056</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>60496944.95582407</v>
+        <v>10786325.36272097</v>
       </c>
       <c r="B76">
-        <v>13239323.64995118</v>
+        <v>1152491.790587706</v>
       </c>
       <c r="C76">
-        <v>107754566.261697</v>
+        <v>20420158.93485424</v>
       </c>
       <c r="D76">
-        <v>-11777349.92608567</v>
+        <v>-3947351.644189073</v>
       </c>
       <c r="E76">
-        <v>132771239.8377338</v>
+        <v>25520002.36963102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>66035922.22453546</v>
+        <v>10786325.3627199</v>
       </c>
       <c r="B77">
-        <v>18342945.69044187</v>
+        <v>1128419.336795799</v>
       </c>
       <c r="C77">
-        <v>113728898.7586291</v>
+        <v>20444231.388644</v>
       </c>
       <c r="D77">
-        <v>-6904191.022186764</v>
+        <v>-3984167.285259951</v>
       </c>
       <c r="E77">
-        <v>138976035.4712577</v>
+        <v>25556818.01069975</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>61081248.13774375</v>
+        <v>10786325.36271912</v>
       </c>
       <c r="B78">
-        <v>12951886.24657908</v>
+        <v>1104406.734907378</v>
       </c>
       <c r="C78">
-        <v>109210610.0289084</v>
+        <v>20468243.99053087</v>
       </c>
       <c r="D78">
-        <v>-12526258.9199146</v>
+        <v>-4020891.390743665</v>
       </c>
       <c r="E78">
-        <v>134688755.1954021</v>
+        <v>25593542.11618191</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>66999674.27048919</v>
+        <v>10786325.36271856</v>
       </c>
       <c r="B79">
-        <v>18432896.3458197</v>
+        <v>1080453.54069598</v>
       </c>
       <c r="C79">
-        <v>115566452.1951587</v>
+        <v>20492197.18474114</v>
       </c>
       <c r="D79">
-        <v>-7276802.881685421</v>
+        <v>-4057524.640025912</v>
       </c>
       <c r="E79">
-        <v>141276151.4226638</v>
+        <v>25630175.36546303</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>62232584.95656654</v>
+        <v>10786325.36271816</v>
       </c>
       <c r="B80">
-        <v>13227359.85893425</v>
+        <v>1056559.315403396</v>
       </c>
       <c r="C80">
-        <v>111237810.0541988</v>
+        <v>20516091.41003291</v>
       </c>
       <c r="D80">
-        <v>-12714439.28183889</v>
+        <v>-4094067.704129443</v>
       </c>
       <c r="E80">
-        <v>137179609.194972</v>
+        <v>25666718.42956575</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>65529145.90349035</v>
+        <v>10786325.36271786</v>
       </c>
       <c r="B81">
-        <v>16084442.11132845</v>
+        <v>1032723.625645857</v>
       </c>
       <c r="C81">
-        <v>114973849.6956523</v>
+        <v>20539927.09978987</v>
       </c>
       <c r="D81">
-        <v>-10090002.99724552</v>
+        <v>-4130521.245857509</v>
       </c>
       <c r="E81">
-        <v>141148294.8042262</v>
+        <v>25703171.97129323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>63693345.97037751</v>
+        <v>10786325.36271765</v>
       </c>
       <c r="B82">
-        <v>13808131.6574489</v>
+        <v>1008946.043322282</v>
       </c>
       <c r="C82">
-        <v>113578560.2833061</v>
+        <v>20563704.68211301</v>
       </c>
       <c r="D82">
-        <v>-12599505.63474142</v>
+        <v>-4166885.919934198</v>
       </c>
       <c r="E82">
-        <v>139986197.5754964</v>
+        <v>25739536.6453695</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>58914538.29184924</v>
+        <v>10786325.36271749</v>
       </c>
       <c r="B83">
-        <v>8587781.401366264</v>
+        <v>985226.145524554</v>
       </c>
       <c r="C83">
-        <v>109241295.1823322</v>
+        <v>20587424.57991043</v>
       </c>
       <c r="D83">
-        <v>-18053594.412302</v>
+        <v>-4203162.373141646</v>
       </c>
       <c r="E83">
-        <v>135882670.9960005</v>
+        <v>25775813.09857664</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>63573200.87056256</v>
+        <v>10786325.36271738</v>
       </c>
       <c r="B84">
-        <v>12803869.18613817</v>
+        <v>961563.5144497454</v>
       </c>
       <c r="C84">
-        <v>114342532.554987</v>
+        <v>20611087.21098502</v>
       </c>
       <c r="D84">
-        <v>-14071791.57135647</v>
+        <v>-4239351.244454289</v>
       </c>
       <c r="E84">
-        <v>141218193.3124816</v>
+        <v>25812001.96988905</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63508267.57990568</v>
+        <v>10786325.3627173</v>
       </c>
       <c r="B85">
-        <v>12295328.79347804</v>
+        <v>937957.7373142336</v>
       </c>
       <c r="C85">
-        <v>114721206.3663333</v>
+        <v>20634692.98812037</v>
       </c>
       <c r="D85">
-        <v>-14815163.37872107</v>
+        <v>-4275453.165170185</v>
       </c>
       <c r="E85">
-        <v>141831698.5385324</v>
+        <v>25848103.89060479</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>67102798.36127985</v>
+        <v>10786325.36271724</v>
       </c>
       <c r="B86">
-        <v>15030972.92954839</v>
+        <v>914408.4062696882</v>
       </c>
       <c r="C86">
-        <v>119174623.7930113</v>
+        <v>20658242.3191648</v>
       </c>
       <c r="D86">
-        <v>-12534186.36830466</v>
+        <v>-4311468.759039534</v>
       </c>
       <c r="E86">
-        <v>146739783.0908644</v>
+        <v>25884119.48447403</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>65470495.31792448</v>
+        <v>10786325.3627172</v>
       </c>
       <c r="B87">
-        <v>12956513.63499818</v>
+        <v>890915.1183208339</v>
       </c>
       <c r="C87">
-        <v>117984477.0008508</v>
+        <v>20681735.60711357</v>
       </c>
       <c r="D87">
-        <v>-14842709.04353482</v>
+        <v>-4347398.642390413</v>
       </c>
       <c r="E87">
-        <v>145783699.6793838</v>
+        <v>25920049.36782482</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>64911923.5319199</v>
+        <v>10786325.36271717</v>
       </c>
       <c r="B88">
-        <v>11954702.39401013</v>
+        <v>867477.4752450045</v>
       </c>
       <c r="C88">
-        <v>117869144.6698297</v>
+        <v>20705173.25018934</v>
       </c>
       <c r="D88">
-        <v>-16079157.07865121</v>
+        <v>-4383243.424251838</v>
       </c>
       <c r="E88">
-        <v>145903004.142491</v>
+        <v>25955894.14968618</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>70450900.80063129</v>
+        <v>10786325.36271715</v>
       </c>
       <c r="B89">
-        <v>17049358.22417954</v>
+        <v>844095.0835133586</v>
       </c>
       <c r="C89">
-        <v>123852443.377083</v>
+        <v>20728555.64192094</v>
       </c>
       <c r="D89">
-        <v>-11219710.81010777</v>
+        <v>-4419003.706474224</v>
       </c>
       <c r="E89">
-        <v>152121512.4113703</v>
+        <v>25991654.43190853</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>65496226.71383958</v>
+        <v>10786325.36271713</v>
       </c>
       <c r="B90">
-        <v>11649281.96051446</v>
+        <v>820767.5542138051</v>
       </c>
       <c r="C90">
-        <v>119343171.4671647</v>
+        <v>20751883.17122046</v>
       </c>
       <c r="D90">
-        <v>-16855568.743713</v>
+        <v>-4454680.083847292</v>
       </c>
       <c r="E90">
-        <v>147848022.1713922</v>
+        <v>26027330.80928156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>71414652.84658502</v>
+        <v>10786325.36271712</v>
       </c>
       <c r="B91">
-        <v>17121226.44700827</v>
+        <v>797494.5029755197</v>
       </c>
       <c r="C91">
-        <v>125708079.2461618</v>
+        <v>20775156.22245872</v>
       </c>
       <c r="D91">
-        <v>-11619977.36373027</v>
+        <v>-4490273.144215489</v>
       </c>
       <c r="E91">
-        <v>154449283.0569003</v>
+        <v>26062923.86964973</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>66647563.53266236</v>
+        <v>10786325.36271711</v>
       </c>
       <c r="B92">
-        <v>11906577.30891949</v>
+        <v>774275.5498950519</v>
       </c>
       <c r="C92">
-        <v>121388549.7564052</v>
+        <v>20798375.17553917</v>
       </c>
       <c r="D92">
-        <v>-17071550.36124152</v>
+        <v>-4525783.468591005</v>
       </c>
       <c r="E92">
-        <v>150366677.4265662</v>
+        <v>26098434.19402523</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>69944124.47958617</v>
+        <v>10786325.36271711</v>
       </c>
       <c r="B93">
-        <v>14754501.56657378</v>
+        <v>751110.3194639646</v>
       </c>
       <c r="C93">
-        <v>125133747.3925986</v>
+        <v>20821540.40597025</v>
       </c>
       <c r="D93">
-        <v>-14461120.02096084</v>
+        <v>-4561211.63126443</v>
       </c>
       <c r="E93">
-        <v>154349368.9801332</v>
+        <v>26133862.35669864</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>68108324.54647335</v>
+        <v>10786325.3627171</v>
       </c>
       <c r="B94">
-        <v>12468989.41213393</v>
+        <v>727998.4404979888</v>
       </c>
       <c r="C94">
-        <v>123747659.6808128</v>
+        <v>20844652.28493622</v>
       </c>
       <c r="D94">
-        <v>-16984695.44505353</v>
+        <v>-4596558.19991312</v>
       </c>
       <c r="E94">
-        <v>153201344.5380002</v>
+        <v>26169208.92534733</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>63329516.86794506</v>
+        <v>10786325.3627171</v>
       </c>
       <c r="B95">
-        <v>7239395.332436629</v>
+        <v>704939.5460676141</v>
       </c>
       <c r="C95">
-        <v>119419638.4034535</v>
+        <v>20867711.17936658</v>
       </c>
       <c r="D95">
-        <v>-22452921.43086331</v>
+        <v>-4631823.735707333</v>
       </c>
       <c r="E95">
-        <v>149111955.1667534</v>
+        <v>26204474.46114153</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>67988179.44665839</v>
+        <v>10786325.3627171</v>
       </c>
       <c r="B96">
-        <v>11446198.70050472</v>
+        <v>681933.2734301388</v>
       </c>
       <c r="C96">
-        <v>124530160.1928121</v>
+        <v>20890717.45200406</v>
       </c>
       <c r="D96">
-        <v>-18485317.87993947</v>
+        <v>-4667008.793414159</v>
       </c>
       <c r="E96">
-        <v>154461676.7732562</v>
+        <v>26239659.51884835</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>67923246.15600151</v>
+        <v>10786325.3627171</v>
       </c>
       <c r="B97">
-        <v>10928334.77726658</v>
+        <v>658979.2639630772</v>
       </c>
       <c r="C97">
-        <v>124918157.5347364</v>
+        <v>20913671.46147111</v>
       </c>
       <c r="D97">
-        <v>-19242948.79683426</v>
+        <v>-4702113.92149936</v>
       </c>
       <c r="E97">
-        <v>155089441.1088373</v>
+        <v>26274764.64693355</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>71517776.93737568</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B98">
-        <v>13675660.22797878</v>
+        <v>636077.1630989369</v>
       </c>
       <c r="C98">
-        <v>129359893.6467726</v>
+        <v>20936573.56233525</v>
       </c>
       <c r="D98">
-        <v>-16944106.75733461</v>
+        <v>-4737139.662227115</v>
       </c>
       <c r="E98">
-        <v>159979660.632086</v>
+        <v>26309790.3876613</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>69885473.89402032</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B99">
-        <v>11591357.38094514</v>
+        <v>613226.6202613339</v>
       </c>
       <c r="C99">
-        <v>128179590.4070955</v>
+        <v>20959424.10517285</v>
       </c>
       <c r="D99">
-        <v>-19267683.84696849</v>
+        <v>-4772086.551757745</v>
       </c>
       <c r="E99">
-        <v>159038631.6350091</v>
+        <v>26344737.27719193</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>69326902.10801573</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B100">
-        <v>10579678.26415739</v>
+        <v>590427.2888023555</v>
       </c>
       <c r="C100">
-        <v>128074125.9518741</v>
+        <v>20982223.43663183</v>
       </c>
       <c r="D100">
-        <v>-20519223.49579075</v>
+        <v>-4806955.120243477</v>
       </c>
       <c r="E100">
-        <v>159173027.7118222</v>
+        <v>26379605.84567767</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>74865879.37672712</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B101">
-        <v>15664442.87580819</v>
+        <v>567678.8259412218</v>
       </c>
       <c r="C101">
-        <v>134067315.877646</v>
+        <v>21004971.89949296</v>
       </c>
       <c r="D101">
-        <v>-15674904.54056102</v>
+        <v>-4841745.891922275</v>
       </c>
       <c r="E101">
-        <v>165406663.2940153</v>
+        <v>26414396.61735646</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>69911205.28993541</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B102">
-        <v>10254453.00100008</v>
+        <v>544980.892704146</v>
       </c>
       <c r="C102">
-        <v>129567957.5788707</v>
+        <v>21027669.83273004</v>
       </c>
       <c r="D102">
-        <v>-21325924.03404371</v>
+        <v>-4876459.385209812</v>
       </c>
       <c r="E102">
-        <v>161148334.6139146</v>
+        <v>26449110.110644</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>75829631.42268084</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B103">
-        <v>15716462.40439364</v>
+        <v>522333.1538654137</v>
       </c>
       <c r="C103">
-        <v>135942800.440968</v>
+        <v>21050317.57156877</v>
       </c>
       <c r="D103">
-        <v>-16105527.05246325</v>
+        <v>-4911096.112789573</v>
       </c>
       <c r="E103">
-        <v>167764789.8978249</v>
+        <v>26483746.83822376</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>71062542.1087582</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B104">
-        <v>10491857.60351878</v>
+        <v>499735.2778896037</v>
       </c>
       <c r="C104">
-        <v>131633226.6139976</v>
+        <v>21072915.44754458</v>
       </c>
       <c r="D104">
-        <v>-21572325.92229016</v>
+        <v>-4945656.58170123</v>
       </c>
       <c r="E104">
-        <v>163697410.1398066</v>
+        <v>26518307.30713542</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>74359103.055682</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B105">
-        <v>13329806.48356635</v>
+        <v>477186.9368749782</v>
       </c>
       <c r="C105">
-        <v>135388399.6277977</v>
+        <v>21095463.78855921</v>
       </c>
       <c r="D105">
-        <v>-18977151.60554142</v>
+        <v>-4980141.293427218</v>
       </c>
       <c r="E105">
-        <v>167695357.7169054</v>
+        <v>26552792.01886141</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>72523303.12256917</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B106">
-        <v>11034300.07510752</v>
+        <v>454687.8064979594</v>
       </c>
       <c r="C106">
-        <v>134012306.1700308</v>
+        <v>21117962.91893623</v>
       </c>
       <c r="D106">
-        <v>-21516011.92214739</v>
+        <v>-5014550.743977644</v>
       </c>
       <c r="E106">
-        <v>166562618.1672857</v>
+        <v>26587201.46941183</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>67744495.44404091</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B107">
-        <v>5794693.67784185</v>
+        <v>432237.5659587085</v>
       </c>
       <c r="C107">
-        <v>129694297.21024</v>
+        <v>21140413.15947548</v>
       </c>
       <c r="D107">
-        <v>-26999550.42628525</v>
+        <v>-5048885.423973523</v>
       </c>
       <c r="E107">
-        <v>162488541.3143671</v>
+        <v>26621536.14940771</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>72403158.02275421</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B108">
-        <v>9991467.452984549</v>
+        <v>409835.8979277555</v>
       </c>
       <c r="C108">
-        <v>134814848.5925239</v>
+        <v>21162814.82750643</v>
       </c>
       <c r="D108">
-        <v>-23047285.81406811</v>
+        <v>-5083145.818728402</v>
       </c>
       <c r="E108">
-        <v>167853601.8595765</v>
+        <v>26655796.54416259</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>72338224.73209734</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B109">
-        <v>9463557.425826147</v>
+        <v>387482.4884936661</v>
       </c>
       <c r="C109">
-        <v>135212892.0383685</v>
+        <v>21185168.23694052</v>
       </c>
       <c r="D109">
-        <v>-23820280.92105718</v>
+        <v>-5117332.408328388</v>
       </c>
       <c r="E109">
-        <v>168496730.3852519</v>
+        <v>26689983.13376258</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>75932755.51347151</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B110">
-        <v>12218620.30985075</v>
+        <v>365177.027111724</v>
       </c>
       <c r="C110">
-        <v>139646890.7170923</v>
+        <v>21207473.69832246</v>
       </c>
       <c r="D110">
-        <v>-21509605.49846722</v>
+        <v>-5151445.667710641</v>
       </c>
       <c r="E110">
-        <v>173375116.5254102</v>
+        <v>26724096.39314483</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>74300452.47011614</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B111">
-        <v>10123891.94066525</v>
+        <v>342919.2065535877</v>
       </c>
       <c r="C111">
-        <v>138477012.999567</v>
+        <v>21229731.5188806</v>
       </c>
       <c r="D111">
-        <v>-23849127.04830626</v>
+        <v>-5185486.066740362</v>
       </c>
       <c r="E111">
-        <v>172450031.9885385</v>
+        <v>26758136.79217455</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>73741880.68411157</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B112">
-        <v>9101780.45685035</v>
+        <v>320708.7228579279</v>
       </c>
       <c r="C112">
-        <v>138381980.9113728</v>
+        <v>21251942.00257626</v>
       </c>
       <c r="D112">
-        <v>-25116621.62566705</v>
+        <v>-5219454.070286287</v>
       </c>
       <c r="E112">
-        <v>172600382.9938902</v>
+        <v>26792104.79572047</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>79280857.95282295</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B113">
-        <v>14176106.33565474</v>
+        <v>298545.2752819899</v>
       </c>
       <c r="C113">
-        <v>144385609.5699912</v>
+        <v>21274105.4501522</v>
       </c>
       <c r="D113">
-        <v>-20288267.33465627</v>
+        <v>-5253350.138294773</v>
       </c>
       <c r="E113">
-        <v>178849983.2403022</v>
+        <v>26826000.86372896</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>74326183.86603123</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B114">
-        <v>8755671.827415556</v>
+        <v>276428.5662540812</v>
       </c>
       <c r="C114">
-        <v>139896695.9046469</v>
+        <v>21296222.1591801</v>
       </c>
       <c r="D114">
-        <v>-25955260.51652342</v>
+        <v>-5287174.725862447</v>
       </c>
       <c r="E114">
-        <v>174607628.2485859</v>
+        <v>26859825.45129663</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>80244609.99877669</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B115">
-        <v>14207231.14863452</v>
+        <v>254358.3013269603</v>
       </c>
       <c r="C115">
-        <v>146281988.8489189</v>
+        <v>21318292.42410723</v>
       </c>
       <c r="D115">
-        <v>-20750845.55646154</v>
+        <v>-5320928.283307506</v>
       </c>
       <c r="E115">
-        <v>181240065.5540149</v>
+        <v>26893579.00874169</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>75477520.68485403</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B116">
-        <v>8972171.255701721</v>
+        <v>232334.1891321</v>
       </c>
       <c r="C116">
-        <v>141982870.1140063</v>
+        <v>21340316.53630209</v>
       </c>
       <c r="D116">
-        <v>-26233634.10976242</v>
+        <v>-5354611.256239658</v>
       </c>
       <c r="E116">
-        <v>177188675.4794705</v>
+        <v>26927261.98167384</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>78774081.63177782</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B117">
-        <v>11799660.4600859</v>
+        <v>210355.9413348064</v>
       </c>
       <c r="C117">
-        <v>145748502.8034698</v>
+        <v>21362294.78409938</v>
       </c>
       <c r="D117">
-        <v>-23654456.48650722</v>
+        <v>-5388224.085628763</v>
       </c>
       <c r="E117">
-        <v>181202619.7500629</v>
+        <v>26960874.81106295</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>76938281.69866502</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B118">
-        <v>9493690.206438035</v>
+        <v>188423.272590179</v>
       </c>
       <c r="C118">
-        <v>144382873.190892</v>
+        <v>21384227.45284401</v>
       </c>
       <c r="D118">
-        <v>-26209319.87334597</v>
+        <v>-5421767.20787219</v>
       </c>
       <c r="E118">
-        <v>180085883.270676</v>
+        <v>26994417.93330638</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>72159474.02013673</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B119">
-        <v>4243616.196710452</v>
+        <v>166535.9004998859</v>
       </c>
       <c r="C119">
-        <v>140075331.843563</v>
+        <v>21406114.8249343</v>
       </c>
       <c r="D119">
-        <v>-31708867.20926324</v>
+        <v>-5455241.054860914</v>
       </c>
       <c r="E119">
-        <v>176027815.2495367</v>
+        <v>27027891.7802951</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>76818136.59885004</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B120">
-        <v>8429918.982902467</v>
+        <v>144693.5455697421</v>
       </c>
       <c r="C120">
-        <v>145206354.2147976</v>
+        <v>21427957.17986444</v>
       </c>
       <c r="D120">
-        <v>-27772616.5927195</v>
+        <v>-5488646.054044409</v>
       </c>
       <c r="E120">
-        <v>181408889.7904196</v>
+        <v>27061296.77947859</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>76753203.30819318</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B121">
-        <v>7891534.969965875</v>
+        <v>122895.9311680626</v>
       </c>
       <c r="C121">
-        <v>145614871.6464205</v>
+        <v>21449754.79426613</v>
       </c>
       <c r="D121">
-        <v>-28561630.27863413</v>
+        <v>-5521982.628494324</v>
       </c>
       <c r="E121">
-        <v>182068036.8950205</v>
+        <v>27094633.35392851</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>80347734.08956733</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B122">
-        <v>10651469.11413005</v>
+        <v>101142.7834847979</v>
       </c>
       <c r="C122">
-        <v>150043999.0650046</v>
+        <v>21471507.94194939</v>
       </c>
       <c r="D122">
-        <v>-26243504.90655357</v>
+        <v>-5555251.196966995</v>
       </c>
       <c r="E122">
-        <v>186938973.0856882</v>
+        <v>27127901.92240118</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>78715431.04621197</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B123">
-        <v>8545981.525684074</v>
+        <v>79433.83149139769</v>
       </c>
       <c r="C123">
-        <v>148884880.5667399</v>
+        <v>21493216.89394279</v>
       </c>
       <c r="D123">
-        <v>-28599481.26228513</v>
+        <v>-5588452.173964823</v>
       </c>
       <c r="E123">
-        <v>186030343.3547091</v>
+        <v>27161102.89939901</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>78156859.2602074</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B124">
-        <v>7513114.423826277</v>
+        <v>57768.8069014065</v>
       </c>
       <c r="C124">
-        <v>148800604.0965885</v>
+        <v>21514881.91853278</v>
       </c>
       <c r="D124">
-        <v>-29883425.13795145</v>
+        <v>-5621585.969796527</v>
       </c>
       <c r="E124">
-        <v>186197143.6583663</v>
+        <v>27194236.69523071</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>83695836.52891877</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B125">
-        <v>12576688.49271551</v>
+        <v>36147.44413179345</v>
       </c>
       <c r="C125">
-        <v>154814984.565122</v>
+        <v>21536503.28130239</v>
       </c>
       <c r="D125">
-        <v>-25071514.3212174</v>
+        <v>-5654652.990636308</v>
       </c>
       <c r="E125">
-        <v>192463187.379055</v>
+        <v>27227303.7160705</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>78741162.44212708</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B126">
-        <v>7145506.183772147</v>
+        <v>14569.48026495613</v>
       </c>
       <c r="C126">
-        <v>150336818.700482</v>
+        <v>21558081.24516923</v>
       </c>
       <c r="D126">
-        <v>-30754944.84580222</v>
+        <v>-5687653.638581937</v>
       </c>
       <c r="E126">
-        <v>188237269.7300564</v>
+        <v>27260304.36401612</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>84659588.57487251</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B127">
-        <v>12586321.90891168</v>
+        <v>-6965.34498857148</v>
       </c>
       <c r="C127">
-        <v>156732855.2408333</v>
+        <v>21579616.07042276</v>
       </c>
       <c r="D127">
-        <v>-25566960.79803935</v>
+        <v>-5720588.311711803</v>
       </c>
       <c r="E127">
-        <v>194886137.9477844</v>
+        <v>27293239.03714599</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>79892499.26094987</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B128">
-        <v>7340522.814422026</v>
+        <v>-28457.28932676092</v>
       </c>
       <c r="C128">
-        <v>152444475.7074777</v>
+        <v>21601108.01476095</v>
       </c>
       <c r="D128">
-        <v>-31066173.54279693</v>
+        <v>-5753457.404140938</v>
       </c>
       <c r="E128">
-        <v>190851172.0646967</v>
+        <v>27326108.12957513</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>83189060.20787367</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B129">
-        <v>10157277.39630175</v>
+        <v>-49906.60789205879</v>
       </c>
       <c r="C129">
-        <v>156220843.0194456</v>
+        <v>21622557.33332625</v>
       </c>
       <c r="D129">
-        <v>-28503413.10794215</v>
+        <v>-5786261.306076048</v>
       </c>
       <c r="E129">
-        <v>194881533.5236895</v>
+        <v>27358912.03151023</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>81353260.27476084</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B130">
-        <v>7840577.278508186</v>
+        <v>-71313.55330673605</v>
       </c>
       <c r="C130">
-        <v>154865943.2710135</v>
+        <v>21643964.27874092</v>
       </c>
       <c r="D130">
-        <v>-31074686.40589953</v>
+        <v>-5819000.403869553</v>
       </c>
       <c r="E130">
-        <v>193781206.9554212</v>
+        <v>27391651.12930374</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>76574452.59623256</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B131">
-        <v>2579778.337216437</v>
+        <v>-92678.37570759282</v>
       </c>
       <c r="C131">
-        <v>150569126.8552487</v>
+        <v>21665329.10114178</v>
       </c>
       <c r="D131">
-        <v>-36590636.10920301</v>
+        <v>-5851675.080072675</v>
       </c>
       <c r="E131">
-        <v>189739541.3016681</v>
+        <v>27424325.80550686</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>81233115.17494588</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B132">
-        <v>6755361.293700814</v>
+        <v>-114001.3227800708</v>
       </c>
       <c r="C132">
-        <v>155710869.0561909</v>
+        <v>21686652.04821426</v>
       </c>
       <c r="D132">
-        <v>-32670780.05742924</v>
+        <v>-5884285.713487608</v>
       </c>
       <c r="E132">
-        <v>195137010.407321</v>
+        <v>27456936.43892179</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>81168181.884289</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B133">
-        <v>6206262.717372239</v>
+        <v>-135282.6397917327</v>
       </c>
       <c r="C133">
-        <v>156130101.0512058</v>
+        <v>21707933.36522592</v>
       </c>
       <c r="D133">
-        <v>-33476180.25397906</v>
+        <v>-5916832.679218723</v>
       </c>
       <c r="E133">
-        <v>195812544.0225571</v>
+        <v>27489483.40465291</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>84762712.66566317</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B134">
-        <v>8968925.878518805</v>
+        <v>-156522.5696252007</v>
       </c>
       <c r="C134">
-        <v>160556499.4528076</v>
+        <v>21729173.29505939</v>
       </c>
       <c r="D134">
-        <v>-31153881.21059063</v>
+        <v>-5949316.348722933</v>
       </c>
       <c r="E134">
-        <v>200679306.541917</v>
+        <v>27521967.07415712</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>83130409.62230781</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B135">
-        <v>6852504.147136182</v>
+        <v>-177721.3528104927</v>
       </c>
       <c r="C135">
-        <v>159408315.0974794</v>
+        <v>21750372.07824468</v>
       </c>
       <c r="D135">
-        <v>-33526579.89489158</v>
+        <v>-5981737.08985916</v>
       </c>
       <c r="E135">
-        <v>199787399.1395072</v>
+        <v>27554387.81529335</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>82571837.83630322</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B136">
-        <v>5808712.831645131</v>
+        <v>-198879.2275567949</v>
       </c>
       <c r="C136">
-        <v>159334962.8409613</v>
+        <v>21771529.95299098</v>
       </c>
       <c r="D136">
-        <v>-34827230.91356815</v>
+        <v>-6014095.266936911</v>
       </c>
       <c r="E136">
-        <v>199970906.5861746</v>
+        <v>27586745.9923711</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>88110815.10501462</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B137">
-        <v>10861372.67125112</v>
+        <v>-219996.4297836926</v>
       </c>
       <c r="C137">
-        <v>165360257.5387781</v>
+        <v>21792647.15521788</v>
       </c>
       <c r="D137">
-        <v>-30032011.97009876</v>
+        <v>-6046391.240764057</v>
       </c>
       <c r="E137">
-        <v>206253642.180128</v>
+        <v>27619041.96619824</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>83156141.0182229</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B138">
-        <v>5419286.170560449</v>
+        <v>-241073.1931518726</v>
       </c>
       <c r="C138">
-        <v>160892995.8658854</v>
+        <v>21813723.91858606</v>
       </c>
       <c r="D138">
-        <v>-35732119.01686171</v>
+        <v>-6078625.368693786</v>
       </c>
       <c r="E138">
-        <v>202044401.0533075</v>
+        <v>27651276.09412798</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>89074567.15096834</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B139">
-        <v>10849207.79285502</v>
+        <v>-262109.7490932755</v>
       </c>
       <c r="C139">
-        <v>167299926.5090817</v>
+        <v>21834760.47452746</v>
       </c>
       <c r="D139">
-        <v>-30560796.06163234</v>
+        <v>-6110798.0046707</v>
       </c>
       <c r="E139">
-        <v>208709930.363569</v>
+        <v>27683448.73010489</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>84307477.8370457</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B140">
-        <v>5592524.734009385</v>
+        <v>-283106.3268407509</v>
       </c>
       <c r="C140">
-        <v>163022430.940082</v>
+        <v>21855757.05227494</v>
       </c>
       <c r="D140">
-        <v>-36076654.39344259</v>
+        <v>-6142909.499276193</v>
       </c>
       <c r="E140">
-        <v>204691610.067534</v>
+        <v>27715560.22471038</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>87604038.78396949</v>
+        <v>10786325.36271709</v>
       </c>
       <c r="B141">
-        <v>8398405.53786844</v>
+        <v>-304063.1534571983</v>
       </c>
       <c r="C141">
-        <v>166809672.0300705</v>
+        <v>21876713.87889139</v>
       </c>
       <c r="D141">
-        <v>-33530523.96698496</v>
+        <v>-6174960.199773001</v>
       </c>
       <c r="E141">
-        <v>208738601.5349239</v>
+        <v>27747610.92520719</v>
       </c>
     </row>
   </sheetData>
